--- a/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
+++ b/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A67E502-3148-4C68-9E9F-7217A244BC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E8240-E3C7-43D6-B7FD-A87497CAF028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -60,18 +60,6 @@
     <t>1005645488</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>16 abr. 2023, 20:11:41</t>
-  </si>
-  <si>
-    <t>16 abr. 2023, 20:13:31</t>
-  </si>
-  <si>
     <t>PI000000139885 20</t>
   </si>
   <si>
@@ -79,13 +67,18 @@
   </si>
   <si>
     <t>16 abr. 2023, 20:14:51</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,17 +435,20 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,14 +461,17 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
+++ b/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E8240-E3C7-43D6-B7FD-A87497CAF028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5298D4-7C55-4186-A387-36756B4A01CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>usuario</t>
   </si>
@@ -60,25 +60,44 @@
     <t>1005645488</t>
   </si>
   <si>
-    <t>PI000000139885 20</t>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25 may. 2023, 10:55:45</t>
+  </si>
+  <si>
+    <t>PI000000139985 10</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 10:57:37</t>
+  </si>
+  <si>
+    <t>PI000000139986 10</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 10:59:08</t>
+  </si>
+  <si>
+    <t>PI000000139988 11</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>16 abr. 2023, 20:14:51</t>
-  </si>
-  <si>
-    <t>SCISNEROSS1</t>
-  </si>
-  <si>
-    <t>usuarioAp</t>
+    <t>25 may. 2023, 11:00:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,18 +427,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -436,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -462,16 +481,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
+++ b/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5298D4-7C55-4186-A387-36756B4A01CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501D72D-4EC5-4841-98BC-E64A54B7FEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -51,39 +51,12 @@
     <t>AA2202174GJD</t>
   </si>
   <si>
-    <t>cuenta</t>
-  </si>
-  <si>
-    <t>cuenta deposito</t>
-  </si>
-  <si>
     <t>1005645488</t>
   </si>
   <si>
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>25 may. 2023, 10:55:45</t>
-  </si>
-  <si>
-    <t>PI000000139985 10</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 10:57:37</t>
-  </si>
-  <si>
-    <t>PI000000139986 10</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 10:59:08</t>
-  </si>
-  <si>
     <t>PI000000139988 11</t>
   </si>
   <si>
@@ -91,13 +64,18 @@
   </si>
   <si>
     <t>25 may. 2023, 11:00:28</t>
+  </si>
+  <si>
+    <t>arreglo prestamo</t>
+  </si>
+  <si>
+    <t>cuenta debito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,18 +405,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -449,13 +427,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -478,19 +456,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
+++ b/src/Excel/entregable3/PagoAnticipadoPlazo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501D72D-4EC5-4841-98BC-E64A54B7FEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804475FD-A3E1-48B2-A1E2-37A5C28D84C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -51,25 +48,10 @@
     <t>AA2202174GJD</t>
   </si>
   <si>
-    <t>1005645488</t>
-  </si>
-  <si>
-    <t>usuarioAp</t>
-  </si>
-  <si>
-    <t>PI000000139988 11</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 11:00:28</t>
-  </si>
-  <si>
     <t>arreglo prestamo</t>
   </si>
   <si>
-    <t>cuenta debito</t>
+    <t>ebenito</t>
   </si>
 </sst>
 </file>
@@ -402,24 +384,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,48 +408,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
